--- a/ARVOREZINHA.xlsx
+++ b/ARVOREZINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DB7BDE4-2BC1-4CC9-A456-23BA3423E899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{708863DF-088A-4925-B323-E66518372D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1071,7 +1058,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1131,36 +1118,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1199,14 +1162,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1252,7 +1210,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{A35EE849-148B-4CAC-B649-D197A83E0536}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{F48B128B-57CB-4E8E-9E8A-86CCFA4329BA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1282,10 +1240,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B052F6-7091-4F12-B34E-559CBF46DBCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D61B0A-83C6-4C00-95B0-5A74A658C8F1}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1281,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5789BBA6-3154-497E-A1E8-A84862B8AE2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B02BF0F1-353C-459F-9A06-27207285C31D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1344,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FBB031E-3DA3-4CDC-B1CE-A0A930C2D7AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD4B93D0-DEF7-4E91-962E-1944336514B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1363,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E19B00-DFAE-21E2-7705-15E6A08EEBDE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B43E37C-CEAA-596C-CFAA-A048264C5998}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1454,7 +1412,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64998FF8-ACCB-3B41-980C-E2BFBDC6F518}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAAFDB00-AC1F-A630-E2FC-E1BE0F606CDA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1473,7 +1431,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A69861-7A31-40C4-5007-799044B80F15}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{436BAB61-563E-9C36-260A-C2C363B48292}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1504,7 +1462,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B96A0BA-35BC-0D67-78D6-49FED42C371B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C6E270-E244-DF41-F74E-88CAE68F6767}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1535,7 +1493,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F1750E-54BF-912C-4AF7-6AC7708716F2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493E1580-E33E-F686-9844-1962977E1127}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1578,7 +1536,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C63DE84-A256-4A38-9A80-C9C40777F824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F495FC70-B94A-4DDB-9C73-7B6E4E6A6262}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1574,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{409F0E8A-91BF-4AC0-9DA8-3ACDF43DA3EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE33C780-B786-4CD8-819F-77A431C24B51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1617,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA63257-F7C6-4232-9C0E-AA1D0091714F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B63A06D9-BF8E-4481-9F62-18DC81FD1978}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9B6146-4CD2-4FBC-BC96-8599AB98D071}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71635254-EDBC-4FED-93FD-365C0D9BF191}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1984,98 +1942,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5341,19 +5299,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5376,46 +5334,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5440,54 +5398,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5498,41 +5457,41 @@
       <c r="B2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45717</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>0</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>0</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>296</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="26" t="s">
         <v>296</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>298</v>
       </c>
     </row>
@@ -5563,25 +5522,24 @@
       <c r="B1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="32">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="29">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="32">
         <v>4</v>
       </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="35">
-        <v>4</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>2.6451527575717501E-4</v>
       </c>
     </row>

--- a/ARVOREZINHA.xlsx
+++ b/ARVOREZINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{708863DF-088A-4925-B323-E66518372D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D76D572E-5BAE-4237-8B9F-22F074AB81C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,7 +1210,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{F48B128B-57CB-4E8E-9E8A-86CCFA4329BA}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{BC2F6E01-9076-4390-943D-055357AC2E77}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1240,10 +1240,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D61B0A-83C6-4C00-95B0-5A74A658C8F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D670CD36-4F8B-42CF-A17B-ED43E6B17E22}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B02BF0F1-353C-459F-9A06-27207285C31D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD059C1A-3493-4DAF-B142-E2B2510A8BCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1344,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD4B93D0-DEF7-4E91-962E-1944336514B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59DF5028-4AE0-413A-AF95-7629F92428EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1363,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B43E37C-CEAA-596C-CFAA-A048264C5998}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB64F8E-C7DF-1489-A1F7-7D5CBEB76B79}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1412,7 +1412,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAAFDB00-AC1F-A630-E2FC-E1BE0F606CDA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1F8997-F7E7-0279-25FC-9105A04319B8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1431,7 +1431,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{436BAB61-563E-9C36-260A-C2C363B48292}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E909CA-287A-FF03-CC20-BA413752B8A4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1462,7 +1462,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C6E270-E244-DF41-F74E-88CAE68F6767}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8142A11C-7436-5AD1-A6B8-67841F3D1EBF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1493,7 +1493,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493E1580-E33E-F686-9844-1962977E1127}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CC2824-FFBD-3974-EB77-DEFE34F76BDB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1536,7 +1536,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F495FC70-B94A-4DDB-9C73-7B6E4E6A6262}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8867CD80-B953-491D-AB27-44EE9F3BD44A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1574,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE33C780-B786-4CD8-819F-77A431C24B51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16EAA562-1AAC-467D-B15D-238A1968D207}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1617,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B63A06D9-BF8E-4481-9F62-18DC81FD1978}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FB57C9A-C5FC-42F8-9A48-B51EA84BCA14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71635254-EDBC-4FED-93FD-365C0D9BF191}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B272E-4835-4545-BD74-E5085799C8BE}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/ARVOREZINHA.xlsx
+++ b/ARVOREZINHA.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D76D572E-5BAE-4237-8B9F-22F074AB81C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3107C606-D439-4C58-A527-75E35BFAA769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="299">
   <si>
     <t>COMARCA</t>
   </si>
@@ -923,15 +922,6 @@
   </si>
   <si>
     <t>Finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>ARVOREZINHA</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1190,27 +1180,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{BC2F6E01-9076-4390-943D-055357AC2E77}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{45958E6A-769B-4EF4-9F22-D9E45E4781B3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1240,10 +1215,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D670CD36-4F8B-42CF-A17B-ED43E6B17E22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3CCAEBF-FECD-4F7D-A63C-3B9F2F311B7F}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1256,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD059C1A-3493-4DAF-B142-E2B2510A8BCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF6B2EC3-F386-468E-BEDB-8287059645FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1319,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59DF5028-4AE0-413A-AF95-7629F92428EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1625DBC0-632D-4FE2-8B74-10B220DF322B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1338,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB64F8E-C7DF-1489-A1F7-7D5CBEB76B79}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FBF5D8-28C0-C407-64EA-EF633F79A7C0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1412,7 +1387,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1F8997-F7E7-0279-25FC-9105A04319B8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F8BC4D7-1553-BBAB-DCFB-2C930A421D72}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1431,7 +1406,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E909CA-287A-FF03-CC20-BA413752B8A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D4B9491-F068-9828-2C6A-79BAFFA01B3C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1462,7 +1437,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8142A11C-7436-5AD1-A6B8-67841F3D1EBF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC96F249-4632-5F66-0C49-4B2010318261}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1493,7 +1468,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CC2824-FFBD-3974-EB77-DEFE34F76BDB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE694283-B8D0-2A36-EE9A-E3EDD6FBC3DD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1536,7 +1511,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8867CD80-B953-491D-AB27-44EE9F3BD44A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE1D8BDB-C4E1-4C12-85E6-834E7D557511}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1549,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16EAA562-1AAC-467D-B15D-238A1968D207}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79338B1-99FD-46A0-98D0-6B08326BA841}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1592,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FB57C9A-C5FC-42F8-9A48-B51EA84BCA14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EB2A680-F3CF-4681-AB14-896EFC2588A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B272E-4835-4545-BD74-E5085799C8BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECA3C1F-38E2-4FEE-B2B5-B3103BB509E3}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1942,98 +1917,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5498,52 +5473,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="32">
-        <v>4</v>
-      </c>
-      <c r="C2" s="30">
-        <v>2.6451527575717501E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/ARVOREZINHA.xlsx
+++ b/ARVOREZINHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3107C606-D439-4C58-A527-75E35BFAA769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56EA22E9-BA7D-4731-8089-12D51E640C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1185,7 +1185,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{45958E6A-769B-4EF4-9F22-D9E45E4781B3}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{3CF9599C-6579-4E4E-A44A-CC96B48C4106}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1215,10 +1215,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3CCAEBF-FECD-4F7D-A63C-3B9F2F311B7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A96F75-D45B-46DC-A18D-C43488640716}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,7 +1256,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF6B2EC3-F386-468E-BEDB-8287059645FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34DA9B2B-5C30-47F8-968A-BEA5E07D4962}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,7 +1319,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1625DBC0-632D-4FE2-8B74-10B220DF322B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{598DDF87-38C7-48FA-AA0B-5CB867F47E26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1338,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FBF5D8-28C0-C407-64EA-EF633F79A7C0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D47BCD-7519-51A4-9449-6F521C7C8C53}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1387,7 +1387,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F8BC4D7-1553-BBAB-DCFB-2C930A421D72}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB7EBBBC-2E0A-98E6-F853-9CD3198DD315}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1406,7 +1406,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D4B9491-F068-9828-2C6A-79BAFFA01B3C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C74D45-2AED-C3E5-7AA3-85A47E0C7C4F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1437,7 +1437,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC96F249-4632-5F66-0C49-4B2010318261}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E0B734-18BE-4038-F08E-336F3BAF92EC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1468,7 +1468,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE694283-B8D0-2A36-EE9A-E3EDD6FBC3DD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117391AF-2317-B6B0-32D2-9590B9ADB50E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1511,7 +1511,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE1D8BDB-C4E1-4C12-85E6-834E7D557511}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75924E2F-085F-414D-BBF2-E87B851755CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1549,7 +1549,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79338B1-99FD-46A0-98D0-6B08326BA841}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE520BFA-ACF8-4CC7-946E-6A831646A56A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,50 +1574,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EB2A680-F3CF-4681-AB14-896EFC2588A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1905,7 +1861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECA3C1F-38E2-4FEE-B2B5-B3103BB509E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CB15D2-6AD4-44F5-8B57-96056B1E65BC}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
